--- a/ConfigFile/TestDataFile.xlsx
+++ b/ConfigFile/TestDataFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSelCSharpProjects\POC\DemoProject\DemoProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSelCSharpProjects\POM_Proj\ProjectPOC\ConfigFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Sharma</t>
   </si>
   <si>
-    <t>ankita.sharma@gmail.com</t>
-  </si>
-  <si>
     <t>System@123</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>Speciality</t>
+  </si>
+  <si>
+    <t>ankita.singh@gmail.com</t>
+  </si>
+  <si>
+    <t>Agasthya@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -463,34 +466,35 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>201306</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ConfigFile/TestDataFile.xlsx
+++ b/ConfigFile/TestDataFile.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="RegisterUser" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginUser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -53,12 +54,6 @@
     <t>Occupation</t>
   </si>
   <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
     <t>System@123</t>
   </si>
   <si>
@@ -74,10 +69,16 @@
     <t>Speciality</t>
   </si>
   <si>
-    <t>ankita.singh@gmail.com</t>
-  </si>
-  <si>
     <t>Agasthya@gmail.com</t>
+  </si>
+  <si>
+    <t>nisha</t>
+  </si>
+  <si>
+    <t>chauhan</t>
+  </si>
+  <si>
+    <t>nishachauhan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -408,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,46 +456,88 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>201306</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ConfigFile/TestDataFile.xlsx
+++ b/ConfigFile/TestDataFile.xlsx
@@ -72,20 +72,20 @@
     <t>Agasthya@gmail.com</t>
   </si>
   <si>
-    <t>nisha</t>
-  </si>
-  <si>
-    <t>chauhan</t>
-  </si>
-  <si>
-    <t>nishachauhan@gmail.com</t>
+    <t>Anju</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Anjusingh@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -123,9 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,7 +480,7 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -498,6 +506,7 @@
     <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -506,7 +515,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A3:B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,10 +533,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ConfigFile/TestDataFile.xlsx
+++ b/ConfigFile/TestDataFile.xlsx
@@ -72,13 +72,13 @@
     <t>Agasthya@gmail.com</t>
   </si>
   <si>
-    <t>Anju</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Anjusingh@gmail.com</t>
+    <t>Shruti</t>
+  </si>
+  <si>
+    <t>Malhotra</t>
+  </si>
+  <si>
+    <t>shruti.malhotra@gmail.com</t>
   </si>
 </sst>
 </file>
